--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H2">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N2">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q2">
-        <v>143.4801823081804</v>
+        <v>233.78580904966</v>
       </c>
       <c r="R2">
-        <v>143.4801823081804</v>
+        <v>2104.07228144694</v>
       </c>
       <c r="S2">
-        <v>0.1006606033466276</v>
+        <v>0.09315804892515084</v>
       </c>
       <c r="T2">
-        <v>0.1006606033466276</v>
+        <v>0.09315804892515085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H3">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N3">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q3">
-        <v>378.6788914748754</v>
+        <v>583.365547985476</v>
       </c>
       <c r="R3">
-        <v>378.6788914748754</v>
+        <v>5250.289931869284</v>
       </c>
       <c r="S3">
-        <v>0.2656676697595735</v>
+        <v>0.2324572072248174</v>
       </c>
       <c r="T3">
-        <v>0.2656676697595735</v>
+        <v>0.2324572072248174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H4">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I4">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J4">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N4">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q4">
-        <v>68.23600531700622</v>
+        <v>126.866349370068</v>
       </c>
       <c r="R4">
-        <v>68.23600531700622</v>
+        <v>1141.797144330612</v>
       </c>
       <c r="S4">
-        <v>0.04787195942099053</v>
+        <v>0.05055320350544289</v>
       </c>
       <c r="T4">
-        <v>0.04787195942099053</v>
+        <v>0.05055320350544289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H5">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I5">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J5">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N5">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q5">
-        <v>82.6238569791864</v>
+        <v>128.94093946438</v>
       </c>
       <c r="R5">
-        <v>82.6238569791864</v>
+        <v>1160.46845517942</v>
       </c>
       <c r="S5">
-        <v>0.0579659654772838</v>
+        <v>0.0513798779998922</v>
       </c>
       <c r="T5">
-        <v>0.0579659654772838</v>
+        <v>0.0513798779998922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H6">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I6">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J6">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N6">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q6">
-        <v>54.4015841035171</v>
+        <v>84.43295623211</v>
       </c>
       <c r="R6">
-        <v>54.4015841035171</v>
+        <v>759.89660608899</v>
       </c>
       <c r="S6">
-        <v>0.03816622052451993</v>
+        <v>0.03364451204091364</v>
       </c>
       <c r="T6">
-        <v>0.03816622052451993</v>
+        <v>0.03364451204091364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H7">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I7">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J7">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N7">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q7">
-        <v>181.8517559817895</v>
+        <v>364.149960949776</v>
       </c>
       <c r="R7">
-        <v>181.8517559817895</v>
+        <v>3277.349648547985</v>
       </c>
       <c r="S7">
-        <v>0.1275807375087714</v>
+        <v>0.1451050430141595</v>
       </c>
       <c r="T7">
-        <v>0.1275807375087714</v>
+        <v>0.1451050430141596</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H8">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J8">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N8">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q8">
-        <v>37.12007164326189</v>
+        <v>39.70372435787333</v>
       </c>
       <c r="R8">
-        <v>37.12007164326189</v>
+        <v>357.33351922086</v>
       </c>
       <c r="S8">
-        <v>0.02604212475737668</v>
+        <v>0.01582098379399836</v>
       </c>
       <c r="T8">
-        <v>0.02604212475737668</v>
+        <v>0.01582098379399837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H9">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J9">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N9">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q9">
-        <v>97.96884388637238</v>
+        <v>99.07267259397734</v>
       </c>
       <c r="R9">
-        <v>97.96884388637238</v>
+        <v>891.6540533457961</v>
       </c>
       <c r="S9">
-        <v>0.06873146364974728</v>
+        <v>0.039478088589606</v>
       </c>
       <c r="T9">
-        <v>0.06873146364974728</v>
+        <v>0.03947808858960601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H10">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J10">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N10">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q10">
-        <v>17.65348611403917</v>
+        <v>21.545647215092</v>
       </c>
       <c r="R10">
-        <v>17.65348611403917</v>
+        <v>193.910824935828</v>
       </c>
       <c r="S10">
-        <v>0.01238505928012875</v>
+        <v>0.008585424690859779</v>
       </c>
       <c r="T10">
-        <v>0.01238505928012875</v>
+        <v>0.008585424690859779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H11">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J11">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N11">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q11">
-        <v>21.37579867247744</v>
+        <v>21.89797378955334</v>
       </c>
       <c r="R11">
-        <v>21.37579867247744</v>
+        <v>197.08176410598</v>
       </c>
       <c r="S11">
-        <v>0.01499650165460477</v>
+        <v>0.008725818397367122</v>
       </c>
       <c r="T11">
-        <v>0.01499650165460477</v>
+        <v>0.008725818397367122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H12">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J12">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N12">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q12">
-        <v>14.07435275689888</v>
+        <v>14.33920576525667</v>
       </c>
       <c r="R12">
-        <v>14.07435275689888</v>
+        <v>129.05285188731</v>
       </c>
       <c r="S12">
-        <v>0.009874066351405374</v>
+        <v>0.005713830269072647</v>
       </c>
       <c r="T12">
-        <v>0.009874066351405374</v>
+        <v>0.005713830269072647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H13">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J13">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N13">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q13">
-        <v>47.04726535681397</v>
+        <v>61.84340158734401</v>
       </c>
       <c r="R13">
-        <v>47.04726535681397</v>
+        <v>556.5906142860961</v>
       </c>
       <c r="S13">
-        <v>0.03300669151962582</v>
+        <v>0.02464311522667215</v>
       </c>
       <c r="T13">
-        <v>0.03300669151962582</v>
+        <v>0.02464311522667215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H14">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I14">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J14">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N14">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q14">
-        <v>44.32092999053908</v>
+        <v>112.1060819830311</v>
       </c>
       <c r="R14">
-        <v>44.32092999053908</v>
+        <v>1008.95473784728</v>
       </c>
       <c r="S14">
-        <v>0.03109399139282349</v>
+        <v>0.0446715902587731</v>
       </c>
       <c r="T14">
-        <v>0.03109399139282349</v>
+        <v>0.04467159025877311</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H15">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I15">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J15">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N15">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q15">
-        <v>116.9736500745721</v>
+        <v>279.7382194170897</v>
       </c>
       <c r="R15">
-        <v>116.9736500745721</v>
+        <v>2517.643974753808</v>
       </c>
       <c r="S15">
-        <v>0.08206456113132775</v>
+        <v>0.1114689845231636</v>
       </c>
       <c r="T15">
-        <v>0.08206456113132775</v>
+        <v>0.1114689845231636</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H16">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I16">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J16">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N16">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q16">
-        <v>21.078055281483</v>
+        <v>60.83555465228266</v>
       </c>
       <c r="R16">
-        <v>21.078055281483</v>
+        <v>547.5199918705439</v>
       </c>
       <c r="S16">
-        <v>0.01478761545932801</v>
+        <v>0.02424151234723662</v>
       </c>
       <c r="T16">
-        <v>0.01478761545932801</v>
+        <v>0.02424151234723662</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H17">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I17">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J17">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N17">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q17">
-        <v>25.52245280018753</v>
+        <v>61.83037195167112</v>
       </c>
       <c r="R17">
-        <v>25.52245280018753</v>
+        <v>556.4733475650401</v>
       </c>
       <c r="S17">
-        <v>0.01790564701287131</v>
+        <v>0.02463792322873854</v>
       </c>
       <c r="T17">
-        <v>0.01790564701287131</v>
+        <v>0.02463792322873854</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H18">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I18">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J18">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N18">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q18">
-        <v>16.80461204912295</v>
+        <v>40.48769235354222</v>
       </c>
       <c r="R18">
-        <v>16.80461204912295</v>
+        <v>364.3892311818799</v>
       </c>
       <c r="S18">
-        <v>0.01178951936538124</v>
+        <v>0.01613337627493274</v>
       </c>
       <c r="T18">
-        <v>0.01178951936538124</v>
+        <v>0.01613337627493274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H19">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I19">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J19">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N19">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O19">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P19">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q19">
-        <v>56.17388280294907</v>
+        <v>174.6189195242453</v>
       </c>
       <c r="R19">
-        <v>56.17388280294907</v>
+        <v>1571.570275718208</v>
       </c>
       <c r="S19">
-        <v>0.03940960238761292</v>
+        <v>0.06958145968920297</v>
       </c>
       <c r="T19">
-        <v>0.03940960238761292</v>
+        <v>0.06958145968920298</v>
       </c>
     </row>
   </sheetData>
